--- a/medicine/Enfance/Manolito_Gafotas/Manolito_Gafotas.xlsx
+++ b/medicine/Enfance/Manolito_Gafotas/Manolito_Gafotas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Manolito Gafotas est une série de romans de l'écrivaine espagnole Elvira Lindo. Elle raconte les aventures d’un enfant de la classe ouvrière de Carabanchel, une banlieue au sud-ouest de Madrid. 
-Elle a inspiré deux tournages, le premier, un film réalisé par Miguel Albaladejo en 1999[1] et le second, une série.télévisée espagnole en 2004[2].
+Elle a inspiré deux tournages, le premier, un film réalisé par Miguel Albaladejo en 1999 et le second, une série.télévisée espagnole en 2004.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Le public ciblé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Présenté comme un livre pour jeunes, sa cible semble se préciser plutôt chez des adultes ayant une nostalgie de leur enfance.
 </t>
@@ -544,7 +558,9 @@
           <t>Le langage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le niveau de langage de Manolito Gafotas est un niveau commun, truffé d'expressions locales qui sont difficiles à déchiffrer si l'on n'a pas eu une certaine fréquentation du milieu du protagoniste ; c'est un espagnol très éloigné de celui enseigné à l'Institut Cervantes.
 </t>
@@ -575,7 +591,9 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Manolito Gafotas (1994)
 Pobre Manolito  (1995)
